--- a/src/test/resources/case/Evaluation.xlsx
+++ b/src/test/resources/case/Evaluation.xlsx
@@ -80,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/nchr/personresume/evaluation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加自我评价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,6 +109,10 @@
   </si>
   <si>
     <t>evaluation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/personresume/evaluation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +477,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,10 +512,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -527,7 +527,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -561,21 +561,21 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -608,10 +608,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
